--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251019_201404.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251019_201404.xlsx
@@ -4979,7 +4979,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
